--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="149">
   <si>
     <t>tabblad</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>http://xmlns.com/foaf/0.1/{eigenschap}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1035,10 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,10 +1046,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,10 +1057,10 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,10 +1068,10 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,10 +1079,10 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,24 +1090,21 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,60 +1112,60 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,42 +1173,61 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>141</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
@@ -1257,32 +1276,40 @@
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D11" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
-    <hyperlink ref="D12" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
-    <hyperlink ref="D13" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
-    <hyperlink ref="D15" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D16" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D17" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D12" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
+    <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
+    <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
+    <hyperlink ref="D17" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D18" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D10" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D21" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D18" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D19" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D23" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D22" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D20" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="D21" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D25" r:id="rId18"/>
+    <hyperlink ref="D26" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="D10" r:id="rId21"/>
+    <hyperlink ref="D19" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
   <si>
     <t>tabblad</t>
   </si>
@@ -472,6 +472,21 @@
   </si>
   <si>
     <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{focus}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{hetzelfde}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{gerelateerd}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{brederdan}</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{engerdan}</t>
   </si>
 </sst>
 </file>
@@ -880,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,140 +1124,180 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>141</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
@@ -1282,6 +1337,21 @@
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1292,24 +1362,29 @@
     <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
     <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
     <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D17" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D18" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D22" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D23" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
     <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D22" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D20" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D21" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D25" r:id="rId18"/>
-    <hyperlink ref="D26" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D28" r:id="rId14"/>
+    <hyperlink ref="D27" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D25" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="D26" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D8" r:id="rId20"/>
     <hyperlink ref="D10" r:id="rId21"/>
-    <hyperlink ref="D19" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D17" r:id="rId23"/>
+    <hyperlink ref="D18" r:id="rId24"/>
+    <hyperlink ref="D19" r:id="rId25"/>
+    <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="D21" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -1317,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="156">
   <si>
     <t>tabblad</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{engerdan}</t>
+  </si>
+  <si>
+    <t>dctype</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/dcmitype/{klasse}</t>
   </si>
 </sst>
 </file>
@@ -895,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,11 +912,12 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,41 +928,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -965,14 +975,14 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -982,409 +992,442 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
       <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
       <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D12" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
-    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
-    <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
-    <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D22" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D23" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
-    <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D28" r:id="rId14"/>
-    <hyperlink ref="D27" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D25" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D26" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="D31" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D8" r:id="rId20"/>
-    <hyperlink ref="D10" r:id="rId21"/>
-    <hyperlink ref="D24" r:id="rId22"/>
-    <hyperlink ref="D17" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="D19" r:id="rId25"/>
-    <hyperlink ref="D20" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2" location="{eigenschap}"/>
+    <hyperlink ref="E13" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
+    <hyperlink ref="E14" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
+    <hyperlink ref="E15" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
+    <hyperlink ref="E16" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
+    <hyperlink ref="E17" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
+    <hyperlink ref="E23" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="E24" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="E10" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="E8" r:id="rId11" location="{eigenschap}"/>
+    <hyperlink ref="E2" r:id="rId12" location="{klasse}"/>
+    <hyperlink ref="E12" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="E26" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="E27" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="E31" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="E9" r:id="rId20"/>
+    <hyperlink ref="E11" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E18" r:id="rId23"/>
+    <hyperlink ref="E19" r:id="rId24"/>
+    <hyperlink ref="E20" r:id="rId25"/>
+    <hyperlink ref="E21" r:id="rId26"/>
+    <hyperlink ref="E22" r:id="rId27"/>
+    <hyperlink ref="E3" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -1392,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
@@ -2823,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,9 +2904,6 @@
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="5" t="s">
         <v>114</v>
       </c>

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
   <si>
     <t>tabblad</t>
   </si>
@@ -487,12 +487,6 @@
   </si>
   <si>
     <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{engerdan}</t>
-  </si>
-  <si>
-    <t>dctype</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/dcmitype/{klasse}</t>
   </si>
 </sst>
 </file>
@@ -901,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,12 +906,11 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,44 +921,41 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -975,14 +965,14 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -992,442 +982,409 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="E13" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
-    <hyperlink ref="E14" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
-    <hyperlink ref="E15" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
-    <hyperlink ref="E16" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
-    <hyperlink ref="E17" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="E23" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="E24" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="E10" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="E8" r:id="rId11" location="{eigenschap}"/>
-    <hyperlink ref="E2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="E12" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="E29" r:id="rId14"/>
-    <hyperlink ref="E28" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="E26" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="E27" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="E31" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="E9" r:id="rId20"/>
-    <hyperlink ref="E11" r:id="rId21"/>
-    <hyperlink ref="E25" r:id="rId22"/>
-    <hyperlink ref="E18" r:id="rId23"/>
-    <hyperlink ref="E19" r:id="rId24"/>
-    <hyperlink ref="E20" r:id="rId25"/>
-    <hyperlink ref="E21" r:id="rId26"/>
-    <hyperlink ref="E22" r:id="rId27"/>
-    <hyperlink ref="E3" r:id="rId28"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
+    <hyperlink ref="D12" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
+    <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
+    <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
+    <hyperlink ref="D22" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D23" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
+    <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
+    <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D28" r:id="rId14"/>
+    <hyperlink ref="D27" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D25" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="D26" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="D10" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D17" r:id="rId23"/>
+    <hyperlink ref="D18" r:id="rId24"/>
+    <hyperlink ref="D19" r:id="rId25"/>
+    <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="D21" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -1435,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
@@ -2866,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,6 +2861,9 @@
       <c r="A2" t="s">
         <v>114</v>
       </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>114</v>
       </c>

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lwortel\Documents\Klussen\Kadaster\Deliveries\bp4mc2\catalogusdata\Concepten\Regressietest\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\LDT upload\catalogus\catalogusdata\Concepten\Regressietest\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -655,7 +655,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -727,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="4755" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
     <sheet name="Eigenschappen" sheetId="2" r:id="rId2"/>
     <sheet name="Concepten" sheetId="3" r:id="rId3"/>
     <sheet name="Collecties" sheetId="4" r:id="rId4"/>
-    <sheet name="Toeleidingsbegrippen" sheetId="7" r:id="rId5"/>
-    <sheet name="Waardelijsten" sheetId="6" r:id="rId6"/>
-    <sheet name="Bronnen" sheetId="5" r:id="rId7"/>
+    <sheet name="Waardelijsten" sheetId="6" r:id="rId5"/>
+    <sheet name="Bronnen" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="146">
   <si>
     <t>tabblad</t>
   </si>
@@ -111,15 +110,6 @@
     <t>domein</t>
   </si>
   <si>
-    <t>inScheme</t>
-  </si>
-  <si>
-    <t>Domein</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
     <t>scopeNote</t>
   </si>
   <si>
@@ -366,9 +356,6 @@
     <t>Enger beest</t>
   </si>
   <si>
-    <t>beestDomein</t>
-  </si>
-  <si>
     <t>Bron</t>
   </si>
   <si>
@@ -444,22 +431,10 @@
     <t>Standaard beesten</t>
   </si>
   <si>
-    <t>toeleidingsbegrip</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
     <t>Toeleidingsbegrippen</t>
-  </si>
-  <si>
-    <t>closeMatch</t>
-  </si>
-  <si>
-    <t>Ongeveer hetzelfde als</t>
-  </si>
-  <si>
-    <t>http://data.test.pdok.nl/catalogus/dso/id/concept/{toeleidingsbegrip}</t>
   </si>
   <si>
     <t>http://{source}</t>
@@ -492,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,6 +659,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -719,6 +711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +992,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,10 +1006,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1020,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,279 +1034,260 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
@@ -1355,45 +1345,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D12" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
-    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
-    <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
-    <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D22" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D23" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
-    <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D28" r:id="rId14"/>
-    <hyperlink ref="D27" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D25" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D26" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="D31" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D8" r:id="rId20"/>
-    <hyperlink ref="D10" r:id="rId21"/>
-    <hyperlink ref="D24" r:id="rId22"/>
-    <hyperlink ref="D17" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="D19" r:id="rId25"/>
-    <hyperlink ref="D20" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D12" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D15" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D16" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D22" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D23" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D9" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D2" r:id="rId12" location="{klasse}" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D27" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D25" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D26" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1416,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1448,7 +1436,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1468,7 +1456,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1488,118 +1476,115 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1610,13 +1595,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -1627,13 +1612,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -1644,13 +1629,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -1661,474 +1646,372 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
         <v>127</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
         <v>133</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="58" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="52" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2137,36 +2020,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -2178,66 +2061,63 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
@@ -2246,347 +2126,328 @@
         <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="10">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="10">
         <v>36892</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="11"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="L4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="11"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2595,23 +2456,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="1" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
@@ -2620,86 +2481,83 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,55 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2772,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2781,21 +2591,21 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,11 +2629,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2839,10 +2649,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -2851,30 +2661,30 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" s="10">
         <v>42552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2883,7 +2693,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
+++ b/catalogusdata/Concepten/Regressietest/xls/Uploadcontrole.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="4755" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="4755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="144">
   <si>
     <t>tabblad</t>
   </si>
@@ -429,12 +429,6 @@
   </si>
   <si>
     <t>Standaard beesten</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>Toeleidingsbegrippen</t>
   </si>
   <si>
     <t>http://{source}</t>
@@ -1034,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
         <v>120</v>
@@ -1062,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1133,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1144,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1155,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,7 +1166,7 @@
         <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,7 +1177,7 @@
         <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,7 +1213,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,19 +2515,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
       <c r="E4" s="10"/>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="10"/>
@@ -2633,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +2666,7 @@
         <v>42552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
